--- a/Section5PoC/bin/Debug/Wires.xlsx
+++ b/Section5PoC/bin/Debug/Wires.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Wires" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$R$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$86</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Wire (7)</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Connector_2 (11)</t>
+  </si>
+  <si>
+    <t>Port_2 (6)</t>
   </si>
   <si>
     <t>Variant (7)</t>
@@ -754,7 +757,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,10 +777,11 @@
     <col min="12" max="12" width="10.360241481236" customWidth="1"/>
     <col min="13" max="13" width="9.35252162388393" customWidth="1"/>
     <col min="14" max="14" width="16.007561819894" customWidth="1"/>
-    <col min="15" max="15" width="9.98477608816964" customWidth="1"/>
-    <col min="16" max="16" width="9.73310198102679" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.48654283796038" customWidth="1"/>
+    <col min="16" max="16" width="9.98477608816964" customWidth="1"/>
+    <col min="17" max="17" width="9.73310198102679" customWidth="1"/>
     <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -835,4769 +839,5027 @@
       <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="H19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="H35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="H44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="E46" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="F58" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="H60" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S70" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S71" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S72" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="H73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S74" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S76" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="H81" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R86"/>
+  <autoFilter ref="A1:S86"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Section5PoC/bin/Debug/Wires.xlsx
+++ b/Section5PoC/bin/Debug/Wires.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Wires" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wires!$A$1:$S$89</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Wire (7)</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Type (6)</t>
   </si>
   <si>
-    <t>Code_no (56)</t>
-  </si>
-  <si>
-    <t>Length (56)</t>
+    <t>Code_no (18)</t>
+  </si>
+  <si>
+    <t>Length (18)</t>
   </si>
   <si>
     <t>Connector_1 (11)</t>
@@ -86,52 +86,64 @@
     <t>litzed</t>
   </si>
   <si>
-    <t>length=1200,part_no=761980,cost=T2_60.14,area=1.5</t>
+    <t>761980</t>
+  </si>
+  <si>
+    <t>1200</t>
   </si>
   <si>
     <t>A070</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>1113.3</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>AJ-01A-2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>combination</t>
-  </si>
-  <si>
-    <t>1113.3</t>
-  </si>
-  <si>
-    <t>length=1640,part_no=761980,cost=T2_60.14,area=1.5</t>
-  </si>
-  <si>
-    <t>AJ-01A-2</t>
-  </si>
-  <si>
     <t>1113.4</t>
   </si>
   <si>
-    <t>length=5220+L3+L1,part_no=761980,cost=T2_60.14,area=1.5</t>
+    <t>5220+L3+L1</t>
   </si>
   <si>
     <t>1114.5</t>
   </si>
   <si>
-    <t>length=3010,part_no=761980,cost=T2_60.14,area=1.5</t>
+    <t>3010</t>
   </si>
   <si>
     <t>56C</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>1119.1</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>length=6770+L3+L1,part_no=364976,cost=T2_207.25,area=6.0</t>
+    <t>364976</t>
+  </si>
+  <si>
+    <t>6770+L3+L1</t>
   </si>
   <si>
     <t>9B</t>
@@ -143,7 +155,10 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>length=7500+L1+L3,part_no=761974,cost=T2_44.34,area=1.0</t>
+    <t>761974</t>
+  </si>
+  <si>
+    <t>7500+L1+L3</t>
   </si>
   <si>
     <t>F127</t>
@@ -152,7 +167,10 @@
     <t>1221.10</t>
   </si>
   <si>
-    <t>length=4960+L2+L1,part_no=761974,cost=T2_44.34,area=1.0</t>
+    <t>4960+L2+L1</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>1390</t>
@@ -161,46 +179,64 @@
     <t>R4</t>
   </si>
   <si>
-    <t>length=6860+L1+L3,part_no=761980,cost=T2_60.14,area=1.5</t>
+    <t>6860+L1+L3</t>
   </si>
   <si>
     <t>110F_socket</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>2008.3</t>
   </si>
   <si>
     <t>YE</t>
   </si>
   <si>
-    <t>length=6860+L3+L1,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>761975</t>
+  </si>
+  <si>
+    <t>6860+L3+L1</t>
   </si>
   <si>
     <t>56A</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2009.3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2036.1</t>
   </si>
   <si>
-    <t>length=6880+L1+L3,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>6880+L1+L3</t>
   </si>
   <si>
     <t>2037.1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2102.G</t>
   </si>
   <si>
-    <t>length=3560,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>2102.I</t>
   </si>
   <si>
-    <t>length=3320+L3+L1,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>3320+L3+L1</t>
   </si>
   <si>
     <t>AM-18A-6</t>
@@ -209,19 +245,19 @@
     <t>2102.J</t>
   </si>
   <si>
-    <t>length=500,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>500</t>
   </si>
   <si>
     <t>2103.D</t>
   </si>
   <si>
-    <t>length=5470+L1+L3,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>5470+L1+L3</t>
   </si>
   <si>
     <t>2103.E</t>
   </si>
   <si>
-    <t>length=1410,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>1410</t>
   </si>
   <si>
     <t>AF-18A-6</t>
@@ -230,16 +266,19 @@
     <t>2103.J</t>
   </si>
   <si>
-    <t>length=4950,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>4950</t>
   </si>
   <si>
     <t>2152.7</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2155.3</t>
   </si>
   <si>
-    <t>length=2840,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>2840</t>
   </si>
   <si>
     <t>3157.10</t>
@@ -248,13 +287,16 @@
     <t>BU</t>
   </si>
   <si>
-    <t>length=4960+L2+L1,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>761976</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>3407E</t>
   </si>
   <si>
-    <t>length=1960,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>1960</t>
   </si>
   <si>
     <t>56B</t>
@@ -263,7 +305,7 @@
     <t>3408.1</t>
   </si>
   <si>
-    <t>length=3150,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>3150</t>
   </si>
   <si>
     <t>F006</t>
@@ -272,7 +314,7 @@
     <t>3408.2</t>
   </si>
   <si>
-    <t>length=3020,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>3020</t>
   </si>
   <si>
     <t>AB-10B-5</t>
@@ -281,28 +323,25 @@
     <t>3408.4</t>
   </si>
   <si>
-    <t>length=3860+L1,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>3860+L1</t>
   </si>
   <si>
     <t>3412.2</t>
   </si>
   <si>
-    <t>length=3010,part_no=761976,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>F616</t>
   </si>
   <si>
     <t>3428.1</t>
   </si>
   <si>
-    <t>length=6860+L1+L3,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>8</t>
   </si>
   <si>
     <t>3503</t>
   </si>
   <si>
-    <t>length=4960+L1+L2,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>4960+L1+L2</t>
   </si>
   <si>
     <t>F608</t>
@@ -311,22 +350,22 @@
     <t>3558</t>
   </si>
   <si>
-    <t>length=6860+L1+L3,part_no=761975,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>3559</t>
   </si>
   <si>
     <t>BK</t>
   </si>
   <si>
-    <t>length=6860+L1+L3,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>761978</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>3616</t>
   </si>
   <si>
-    <t>length=4760+L1+L4,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>4760+L1+L4</t>
   </si>
   <si>
     <t>B308</t>
@@ -338,7 +377,7 @@
     <t>3619</t>
   </si>
   <si>
-    <t>length=6380+L1,part_no=761975,cost=T2_44.34,area=1.0</t>
+    <t>6380+L1</t>
   </si>
   <si>
     <t>D978.A</t>
@@ -347,13 +386,10 @@
     <t>3620</t>
   </si>
   <si>
-    <t>length=6380+L1,part_no=761978,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>3651.7</t>
   </si>
   <si>
-    <t>length=4520+L3+L1,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>4520+L3+L1</t>
   </si>
   <si>
     <t>AD-17B-1</t>
@@ -362,31 +398,34 @@
     <t>3651.9</t>
   </si>
   <si>
-    <t>length=500,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>5</t>
   </si>
   <si>
     <t>3651.A</t>
   </si>
   <si>
-    <t>length=2340,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>2340</t>
   </si>
   <si>
     <t>3659.2</t>
   </si>
   <si>
-    <t>length=5320+L1+L3,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>5320+L1+L3</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>3659.3</t>
   </si>
   <si>
-    <t>length=1300,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>1300</t>
   </si>
   <si>
     <t>3659.4</t>
   </si>
   <si>
-    <t>length=1540,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>1540</t>
   </si>
   <si>
     <t>AE-17B-1</t>
@@ -395,13 +434,16 @@
     <t>3660.2</t>
   </si>
   <si>
-    <t>length=4820+L1+L3,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>4820+L1+L3</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>3660.3</t>
   </si>
   <si>
-    <t>length=800,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>800</t>
   </si>
   <si>
     <t>AF-17B-1</t>
@@ -410,7 +452,7 @@
     <t>3660.4</t>
   </si>
   <si>
-    <t>length=2040,part_no=761976,cost=T2_44.34,area=1.0</t>
+    <t>2040</t>
   </si>
   <si>
     <t>3812.1</t>
@@ -425,25 +467,28 @@
     <t>OG</t>
   </si>
   <si>
-    <t>length=6860+L3+L1,part_no=1657826,cost=T2_44.34,area=1.0</t>
+    <t>1657826</t>
   </si>
   <si>
     <t>4517</t>
   </si>
   <si>
-    <t>length=6630+L1,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>6630+L1</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>4518</t>
   </si>
   <si>
-    <t>length=6610+L1,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>6610+L1</t>
   </si>
   <si>
     <t>4552.4</t>
   </si>
   <si>
-    <t>length=7300+L3+L1,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>7300+L3+L1</t>
   </si>
   <si>
     <t>12B</t>
@@ -452,25 +497,28 @@
     <t>4591.7</t>
   </si>
   <si>
-    <t>length=1000,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>1000</t>
   </si>
   <si>
     <t>4591.A</t>
   </si>
   <si>
-    <t>length=1860,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>4591.B</t>
   </si>
   <si>
-    <t>length=5020+L1+L3,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>5020+L1+L3</t>
   </si>
   <si>
     <t>4601.6</t>
   </si>
   <si>
-    <t>length=2260,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>2260</t>
   </si>
   <si>
     <t>AE-18A-2</t>
@@ -479,19 +527,22 @@
     <t>4601.7</t>
   </si>
   <si>
-    <t>length=4620+L1+L3,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>4620+L1+L3</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>4601.D</t>
   </si>
   <si>
-    <t>length=600,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>600</t>
   </si>
   <si>
     <t>4936</t>
   </si>
   <si>
-    <t>length=4760+L1+L2,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>4760+L1+L2</t>
   </si>
   <si>
     <t>B122</t>
@@ -500,9 +551,6 @@
     <t>5121</t>
   </si>
   <si>
-    <t>length=4760+L1+L4,part_no=761978,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>5122</t>
   </si>
   <si>
@@ -521,64 +569,64 @@
     <t>GY</t>
   </si>
   <si>
-    <t>length=6380+L1,part_no=1686136,cost=T2_66.33,area=1.5</t>
+    <t>1686136</t>
   </si>
   <si>
     <t>6012.1</t>
   </si>
   <si>
-    <t>length=6880+L1+L3,part_no=761978,cost=T2_44.34,area=1.0</t>
+    <t>31</t>
   </si>
   <si>
     <t>6182</t>
   </si>
   <si>
-    <t>length=7500+L1+L3,part_no=761978,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>9005</t>
   </si>
   <si>
     <t>WH</t>
   </si>
   <si>
-    <t>length=4960+L1+L2,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>761973</t>
   </si>
   <si>
     <t>9026.2</t>
   </si>
   <si>
-    <t>length=4760+L4+L1,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>4760+L4+L1</t>
   </si>
   <si>
     <t>9088.1</t>
   </si>
   <si>
-    <t>length=6860+L3+L1,part_no=761973,cost=T2_44.34,area=1.0</t>
-  </si>
-  <si>
     <t>9090.2</t>
   </si>
   <si>
-    <t>length=6770+L1+L3,part_no=364975,cost=T2_207.25,area=6.0</t>
+    <t>364975</t>
+  </si>
+  <si>
+    <t>6770+L1+L3</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>9094</t>
   </si>
   <si>
-    <t>length=6860+L1+L3,part_no=761979,cost=T2_44.34,area=1.5</t>
+    <t>761979</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>9129</t>
   </si>
   <si>
-    <t>length=6380+L1,part_no=761979,cost=T2_44.34,area=1.5</t>
-  </si>
-  <si>
     <t>M2.20</t>
   </si>
   <si>
-    <t>length=1660,part_no=364975,cost=T2_207.25,area=6.0</t>
+    <t>1660</t>
   </si>
   <si>
     <t>G516-20_FR</t>
@@ -590,7 +638,10 @@
     <t>2.5</t>
   </si>
   <si>
-    <t>length=200,part_no=761983,cost=T2_107.99,area=2.5</t>
+    <t>761983</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>MC-20</t>
@@ -599,7 +650,7 @@
     <t>M4.20</t>
   </si>
   <si>
-    <t>length=2600+L1,part_no=761979,cost=T2_44.34,area=1.5</t>
+    <t>2600+L1</t>
   </si>
   <si>
     <t>MD-20</t>
@@ -608,13 +659,13 @@
     <t>M5.20</t>
   </si>
   <si>
-    <t>length=1750,part_no=761979,cost=T2_44.34,area=1.5</t>
+    <t>1750</t>
   </si>
   <si>
     <t>M6.20</t>
   </si>
   <si>
-    <t>length=100,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>100</t>
   </si>
   <si>
     <t>MK-20</t>
@@ -623,31 +674,34 @@
     <t>M13.21</t>
   </si>
   <si>
-    <t>length=6780+L1+L3,part_no=364975,cost=T2_207.25,area=6.0</t>
+    <t>6780+L1+L3</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>M17.20</t>
   </si>
   <si>
-    <t>length=400,part_no=761979,cost=T2_44.34,area=1.5</t>
+    <t>400</t>
   </si>
   <si>
     <t>M21.20</t>
   </si>
   <si>
-    <t>length=1100,part_no=761983,cost=T2_107.99,area=2.5</t>
+    <t>1100</t>
   </si>
   <si>
     <t>M31.20</t>
   </si>
   <si>
-    <t>length=1050,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>1050</t>
   </si>
   <si>
     <t>M41.20</t>
   </si>
   <si>
-    <t>length=2070,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>2070</t>
   </si>
   <si>
     <t>B243</t>
@@ -656,7 +710,7 @@
     <t>M51.20</t>
   </si>
   <si>
-    <t>length=3300+L1,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>3300+L1</t>
   </si>
   <si>
     <t>MH-20</t>
@@ -665,13 +719,13 @@
     <t>M52.20</t>
   </si>
   <si>
-    <t>length=1050+L2+L1,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>1050+L2+L1</t>
   </si>
   <si>
     <t>M61.20</t>
   </si>
   <si>
-    <t>length=1950,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>1950</t>
   </si>
   <si>
     <t>B244</t>
@@ -680,7 +734,7 @@
     <t>M63.20</t>
   </si>
   <si>
-    <t>length=2220,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>2220</t>
   </si>
   <si>
     <t>F007</t>
@@ -689,7 +743,7 @@
     <t>M115.20</t>
   </si>
   <si>
-    <t>length=1900,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>1900</t>
   </si>
   <si>
     <t>113F_plug</t>
@@ -698,7 +752,7 @@
     <t>M116.20</t>
   </si>
   <si>
-    <t>length=4200,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>4200</t>
   </si>
   <si>
     <t>114F</t>
@@ -707,10 +761,13 @@
     <t>M222.20</t>
   </si>
   <si>
-    <t>length=2470+L3,part_no=761973,cost=T2_44.34,area=1.0</t>
+    <t>2470+L3</t>
   </si>
   <si>
     <t>B084</t>
+  </si>
+  <si>
+    <t>Index out of range</t>
   </si>
 </sst>
 </file>
@@ -757,7 +814,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -767,8 +824,8 @@
     <col min="2" max="2" width="11.7935551234654" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="55.7444414411272" customWidth="1"/>
-    <col min="6" max="6" width="55.7444414411272" customWidth="1"/>
+    <col min="5" max="5" width="16.7820227486747" customWidth="1"/>
+    <col min="6" max="6" width="16.7820227486747" customWidth="1"/>
     <col min="7" max="7" width="16.007561819894" customWidth="1"/>
     <col min="8" max="8" width="9.48654283796038" customWidth="1"/>
     <col min="9" max="9" width="10.360241481236" customWidth="1"/>
@@ -860,51 +917,51 @@
         <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>20</v>
@@ -916,54 +973,54 @@
         <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>20</v>
@@ -975,54 +1032,54 @@
         <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>20</v>
@@ -1034,57 +1091,57 @@
         <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>21</v>
@@ -1093,57 +1150,57 @@
         <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>21</v>
@@ -1152,57 +1209,57 @@
         <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>21</v>
@@ -1211,54 +1268,54 @@
         <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>20</v>
@@ -1267,299 +1324,299 @@
         <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>22</v>
@@ -1568,765 +1625,765 @@
         <v>59</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>22</v>
@@ -2335,3531 +2392,3708 @@
         <v>90</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>174</v>
-      </c>
       <c r="D71" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S86"/>
+  <autoFilter ref="A1:S89"/>
   <headerFooter/>
 </worksheet>
 </file>